--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H2">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I2">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J2">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N2">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O2">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P2">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q2">
-        <v>9.275012893957113</v>
+        <v>11.40888973925555</v>
       </c>
       <c r="R2">
-        <v>83.47511604561402</v>
+        <v>102.6800076533</v>
       </c>
       <c r="S2">
-        <v>0.01209575702871108</v>
+        <v>0.02620722474221374</v>
       </c>
       <c r="T2">
-        <v>0.01719001224961281</v>
+        <v>0.03098932063771691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H3">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I3">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J3">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O3">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P3">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q3">
-        <v>86.16080795147579</v>
+        <v>145.0686722906722</v>
       </c>
       <c r="R3">
-        <v>775.4472715632821</v>
+        <v>1305.61805061605</v>
       </c>
       <c r="S3">
-        <v>0.1123642856666532</v>
+        <v>0.3332355193770395</v>
       </c>
       <c r="T3">
-        <v>0.1596876857268178</v>
+        <v>0.3940418132568316</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H4">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I4">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J4">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N4">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O4">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P4">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q4">
-        <v>2.661554229882666</v>
+        <v>6.923548185211112</v>
       </c>
       <c r="R4">
-        <v>23.953988068944</v>
+        <v>62.3119336669</v>
       </c>
       <c r="S4">
-        <v>0.003470993911434214</v>
+        <v>0.01590400007803155</v>
       </c>
       <c r="T4">
-        <v>0.004932839483651869</v>
+        <v>0.01880604156633651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H5">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I5">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J5">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N5">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O5">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P5">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q5">
-        <v>64.884623708475</v>
+        <v>86.41457198715</v>
       </c>
       <c r="R5">
-        <v>389.3077422508501</v>
+        <v>518.4874319229</v>
       </c>
       <c r="S5">
-        <v>0.08461752584607127</v>
+        <v>0.1985018841296315</v>
       </c>
       <c r="T5">
-        <v>0.08017005755948085</v>
+        <v>0.1564820030861068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.672264666666667</v>
+        <v>4.499283333333334</v>
       </c>
       <c r="H6">
-        <v>8.016794000000001</v>
+        <v>13.49785</v>
       </c>
       <c r="I6">
-        <v>0.2139333398392942</v>
+        <v>0.583046232715136</v>
       </c>
       <c r="J6">
-        <v>0.2639485859587926</v>
+        <v>0.6111950921276581</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N6">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O6">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P6">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q6">
-        <v>1.061845743417333</v>
+        <v>4.004027719938889</v>
       </c>
       <c r="R6">
-        <v>9.556611690756</v>
+        <v>36.03624947945</v>
       </c>
       <c r="S6">
-        <v>0.001384777386424466</v>
+        <v>0.009197604388219744</v>
       </c>
       <c r="T6">
-        <v>0.001967990939229371</v>
+        <v>0.0108759135806662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.05677</v>
       </c>
       <c r="I7">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J7">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N7">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O7">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P7">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q7">
-        <v>5.850419376096668</v>
+        <v>4.274171913806667</v>
       </c>
       <c r="R7">
-        <v>52.65377438487001</v>
+        <v>38.46754722426</v>
       </c>
       <c r="S7">
-        <v>0.007629666082236282</v>
+        <v>0.009818149398584528</v>
       </c>
       <c r="T7">
-        <v>0.01084298015434531</v>
+        <v>0.01160969094494218</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.05677</v>
       </c>
       <c r="I8">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J8">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O8">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P8">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q8">
         <v>54.34783391275667</v>
@@ -948,10 +948,10 @@
         <v>489.1305052148101</v>
       </c>
       <c r="S8">
-        <v>0.07087625662210627</v>
+        <v>0.1248417620080407</v>
       </c>
       <c r="T8">
-        <v>0.1007265371360172</v>
+        <v>0.1476219412738139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.05677</v>
       </c>
       <c r="I9">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J9">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N9">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O9">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P9">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q9">
-        <v>1.67883415528</v>
+        <v>2.593804995353334</v>
       </c>
       <c r="R9">
-        <v>15.10950739752</v>
+        <v>23.34424495818</v>
       </c>
       <c r="S9">
-        <v>0.002189406124383786</v>
+        <v>0.00595819856307394</v>
       </c>
       <c r="T9">
-        <v>0.003111497528282036</v>
+        <v>0.007045405513574643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.05677</v>
       </c>
       <c r="I10">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J10">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N10">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O10">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P10">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q10">
-        <v>40.92741046237501</v>
+        <v>32.37394216023</v>
       </c>
       <c r="R10">
-        <v>245.56446277425</v>
+        <v>194.24365296138</v>
       </c>
       <c r="S10">
-        <v>0.05337437461566778</v>
+        <v>0.07436579696842063</v>
       </c>
       <c r="T10">
-        <v>0.05056903569744414</v>
+        <v>0.0586236696026206</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>5.05677</v>
       </c>
       <c r="I11">
-        <v>0.1349431823867681</v>
+        <v>0.2184296534786591</v>
       </c>
       <c r="J11">
-        <v>0.1664914042968852</v>
+        <v>0.228975207608499</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N11">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O11">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P11">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q11">
-        <v>0.6697826712199999</v>
+        <v>1.500049804476667</v>
       </c>
       <c r="R11">
-        <v>6.028044040979999</v>
+        <v>13.50044824029</v>
       </c>
       <c r="S11">
-        <v>0.0008734789423739273</v>
+        <v>0.003445746540539267</v>
       </c>
       <c r="T11">
-        <v>0.001241353780796526</v>
+        <v>0.004074500273547671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H12">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I12">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J12">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N12">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O12">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P12">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q12">
-        <v>1.911908449043889</v>
+        <v>0.6831083138366666</v>
       </c>
       <c r="R12">
-        <v>17.20717604139501</v>
+        <v>6.14797482453</v>
       </c>
       <c r="S12">
-        <v>0.002493363656221097</v>
+        <v>0.001569159972016729</v>
       </c>
       <c r="T12">
-        <v>0.003543469969795457</v>
+        <v>0.00185548839997431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H13">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I13">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J13">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O13">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P13">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q13">
-        <v>17.76079220398723</v>
+        <v>8.685999986311668</v>
       </c>
       <c r="R13">
-        <v>159.847129835885</v>
+        <v>78.17399987680501</v>
       </c>
       <c r="S13">
-        <v>0.02316225644029264</v>
+        <v>0.01995250711985484</v>
       </c>
       <c r="T13">
-        <v>0.03291728421728487</v>
+        <v>0.02359328951254996</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H14">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I14">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J14">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N14">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O14">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P14">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q14">
-        <v>0.5486405332133333</v>
+        <v>0.4145480791433333</v>
       </c>
       <c r="R14">
-        <v>4.93776479892</v>
+        <v>3.73093271229</v>
       </c>
       <c r="S14">
-        <v>0.0007154947019183797</v>
+        <v>0.0009522534554068926</v>
       </c>
       <c r="T14">
-        <v>0.001016832816773323</v>
+        <v>0.001126013454238244</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H15">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I15">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J15">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N15">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O15">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P15">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q15">
-        <v>13.3750175551875</v>
+        <v>5.174080380315</v>
       </c>
       <c r="R15">
-        <v>80.25010533112501</v>
+        <v>31.04448228189</v>
       </c>
       <c r="S15">
-        <v>0.01744266713717427</v>
+        <v>0.01188531841925241</v>
       </c>
       <c r="T15">
-        <v>0.0165258865039606</v>
+        <v>0.00936937420879216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5508483333333334</v>
+        <v>0.269395</v>
       </c>
       <c r="H16">
-        <v>1.652545</v>
+        <v>0.808185</v>
       </c>
       <c r="I16">
-        <v>0.04409923356952</v>
+        <v>0.03490994636826474</v>
       </c>
       <c r="J16">
-        <v>0.05440914609796297</v>
+        <v>0.03659536189327867</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N16">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O16">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P16">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q16">
-        <v>0.2188839920366666</v>
+        <v>0.2397415249716666</v>
       </c>
       <c r="R16">
-        <v>1.96995592833</v>
+        <v>2.157673724745</v>
       </c>
       <c r="S16">
-        <v>0.0002854516339136092</v>
+        <v>0.0005507074017338593</v>
       </c>
       <c r="T16">
-        <v>0.0004056725901487303</v>
+        <v>0.0006511963177239868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H17">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I17">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J17">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N17">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O17">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P17">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q17">
-        <v>24.64565564126934</v>
+        <v>2.703600934470333</v>
       </c>
       <c r="R17">
-        <v>147.873933847616</v>
+        <v>16.221605606822</v>
       </c>
       <c r="S17">
-        <v>0.03214096474672297</v>
+        <v>0.006210409507169661</v>
       </c>
       <c r="T17">
-        <v>0.03045164660627644</v>
+        <v>0.004895758667118071</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H18">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I18">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J18">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O18">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P18">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q18">
-        <v>228.9473477637013</v>
+        <v>34.37738526106784</v>
       </c>
       <c r="R18">
-        <v>1373.684086582208</v>
+        <v>206.264311566407</v>
       </c>
       <c r="S18">
-        <v>0.2985754869108386</v>
+        <v>0.07896788225470729</v>
       </c>
       <c r="T18">
-        <v>0.2828824611940993</v>
+        <v>0.06225156224015822</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H19">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I19">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J19">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N19">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O19">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P19">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q19">
-        <v>7.072308121856</v>
+        <v>1.640695262307667</v>
       </c>
       <c r="R19">
-        <v>42.433848731136</v>
+        <v>9.844171573845999</v>
       </c>
       <c r="S19">
-        <v>0.009223159218450757</v>
+        <v>0.003768821546660685</v>
       </c>
       <c r="T19">
-        <v>0.00873839311691225</v>
+        <v>0.002971018373359146</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H20">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I20">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J20">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N20">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O20">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P20">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q20">
-        <v>172.4120613756</v>
+        <v>20.4779363212215</v>
       </c>
       <c r="R20">
-        <v>689.6482455024001</v>
+        <v>81.911745284886</v>
       </c>
       <c r="S20">
-        <v>0.2248465233484692</v>
+        <v>0.04703962363492978</v>
       </c>
       <c r="T20">
-        <v>0.1420191111999435</v>
+        <v>0.02472135907117599</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.100768</v>
+        <v>1.0662095</v>
       </c>
       <c r="H21">
-        <v>14.201536</v>
+        <v>2.132419</v>
       </c>
       <c r="I21">
-        <v>0.5684657783388168</v>
+        <v>0.138166322546203</v>
       </c>
       <c r="J21">
-        <v>0.4675778553924284</v>
+        <v>0.0965578982697073</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N21">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O21">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P21">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q21">
-        <v>2.821546970944</v>
+        <v>0.9488472000938333</v>
       </c>
       <c r="R21">
-        <v>16.929281825664</v>
+        <v>5.693083200563</v>
       </c>
       <c r="S21">
-        <v>0.003679644114335412</v>
+        <v>0.002179585602735601</v>
       </c>
       <c r="T21">
-        <v>0.003486243275197008</v>
+        <v>0.001718199917895861</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H22">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I22">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J22">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.470843666666667</v>
+        <v>2.535712666666667</v>
       </c>
       <c r="N22">
-        <v>10.412531</v>
+        <v>7.607138</v>
       </c>
       <c r="O22">
-        <v>0.05653984104486641</v>
+        <v>0.04494879354621957</v>
       </c>
       <c r="P22">
-        <v>0.0651263661336549</v>
+        <v>0.05070282964779482</v>
       </c>
       <c r="Q22">
-        <v>1.671690201926</v>
+        <v>0.4979564915795555</v>
       </c>
       <c r="R22">
-        <v>15.045211817334</v>
+        <v>4.481608424216</v>
       </c>
       <c r="S22">
-        <v>0.002180089530974981</v>
+        <v>0.001143849926234909</v>
       </c>
       <c r="T22">
-        <v>0.003098257153624883</v>
+        <v>0.001352570998043351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H23">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I23">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J23">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>96.72785300000001</v>
       </c>
       <c r="O23">
-        <v>0.5252303626496961</v>
+        <v>0.5715421877013505</v>
       </c>
       <c r="P23">
-        <v>0.6049954204026236</v>
+        <v>0.6447070965264385</v>
       </c>
       <c r="Q23">
-        <v>15.529269887738</v>
+        <v>6.331719277066222</v>
       </c>
       <c r="R23">
-        <v>139.763428989642</v>
+        <v>56.985473493596</v>
       </c>
       <c r="S23">
-        <v>0.02025207700980548</v>
+        <v>0.01454451694170805</v>
       </c>
       <c r="T23">
-        <v>0.02878145212840434</v>
+        <v>0.01719849024308492</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H24">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I24">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J24">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9959919999999999</v>
+        <v>1.538811333333333</v>
       </c>
       <c r="N24">
-        <v>2.987976</v>
+        <v>4.616434</v>
       </c>
       <c r="O24">
-        <v>0.01622465163233374</v>
+        <v>0.02727742533206951</v>
       </c>
       <c r="P24">
-        <v>0.01868863765923709</v>
+        <v>0.03076929413956839</v>
       </c>
       <c r="Q24">
-        <v>0.479707594896</v>
+        <v>0.3021876661431111</v>
       </c>
       <c r="R24">
-        <v>4.317368354064</v>
+        <v>2.719688995288</v>
       </c>
       <c r="S24">
-        <v>0.0006255976761466063</v>
+        <v>0.0006941516888964449</v>
       </c>
       <c r="T24">
-        <v>0.0008890747136176077</v>
+        <v>0.0008208152320598439</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H25">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I25">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J25">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.2807625</v>
+        <v>19.206297</v>
       </c>
       <c r="N25">
-        <v>48.561525</v>
+        <v>38.412594</v>
       </c>
       <c r="O25">
-        <v>0.3955322060116276</v>
+        <v>0.3404565075487166</v>
       </c>
       <c r="P25">
-        <v>0.3037336126210463</v>
+        <v>0.2560262755732715</v>
       </c>
       <c r="Q25">
-        <v>11.694537888975</v>
+        <v>3.771681388068</v>
       </c>
       <c r="R25">
-        <v>70.16722733385001</v>
+        <v>22.630088328408</v>
       </c>
       <c r="S25">
-        <v>0.01525111506424516</v>
+        <v>0.008663884396482257</v>
       </c>
       <c r="T25">
-        <v>0.01444952166021725</v>
+        <v>0.006829869604575862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.481638</v>
+        <v>0.1963773333333333</v>
       </c>
       <c r="H26">
-        <v>1.444914</v>
+        <v>0.589132</v>
       </c>
       <c r="I26">
-        <v>0.03855846586560088</v>
+        <v>0.02544784489173709</v>
       </c>
       <c r="J26">
-        <v>0.04757300825393079</v>
+        <v>0.02667644010085692</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.3973579999999999</v>
+        <v>0.8899256666666666</v>
       </c>
       <c r="N26">
-        <v>1.192074</v>
+        <v>2.669777</v>
       </c>
       <c r="O26">
-        <v>0.006472938661476068</v>
+        <v>0.0157750858716439</v>
       </c>
       <c r="P26">
-        <v>0.007455963183438351</v>
+        <v>0.01779450411292666</v>
       </c>
       <c r="Q26">
-        <v>0.191382712404</v>
+        <v>0.1747612292848889</v>
       </c>
       <c r="R26">
-        <v>1.722444411636</v>
+        <v>1.572851063564</v>
       </c>
       <c r="S26">
-        <v>0.0002495865844286532</v>
+        <v>0.0004014419384154271</v>
       </c>
       <c r="T26">
-        <v>0.0003547025980667168</v>
+        <v>0.0004746940230929401</v>
       </c>
     </row>
   </sheetData>
